--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStuff\MOSIP\githubrepos\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246461B4-C211-4A6E-87CA-0F40A650FEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -467,212 +478,12 @@
 		"code": "NFR",
 		"value": "Non-étranger"
 	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "112",
-		"value": "س-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "لا اعرف"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "غير قابل للتطبيق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "غير مرتبطة
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "زوجت"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "الأرامل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "مطلق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "مطلق من الناحية القانونية
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ملغاة"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "مبطل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "مستند إلى المستند"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "المعرف القائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "يلتقط"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "التسليم إلى العنوان الدائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "التسليم إلى العنوان الحالي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "MLE",
-		"value": "ذكر"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "أنثى"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "آحرون"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "غير أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t>{"value":"عربى","code":"ara"}</t>
-  </si>
-  <si>
-    <t>{"value":"عربي","code":"ara"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -1014,11 +825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,1076 +2854,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>10094</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>10095</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>10096</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>10097</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10098</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>10099</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>10100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>10101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>10102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>10104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10105</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10106</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10108</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>10109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>10110</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>10111</v>
-      </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>10112</v>
-      </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>10113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>10114</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>10115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>10116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>10117</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>10118</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>10119</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>10120</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>10122</v>
-      </c>
-      <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>10123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>10124</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>10125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>10126</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>10127</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>10128</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>10129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A1:I67" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
+      <sortCondition ref="F1:F67"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
